--- a/pred_ohlcv/54_21/2019-10-17 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 LAMB ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>62132.70830435839</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>7527.069904358388</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>69204.86130435839</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>69204.86130435839</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>69154.86130435839</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>72154.86130435839</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>72131.94470435839</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>110292.9301043584</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>556614.0769716706</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>559461.7082192897</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>656709.0367573511</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>656709.0367573511</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>714770.3000573511</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>713662.2172573511</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>705584.8857573512</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>705584.8857573512</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>705584.8857573512</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>709524.3511573512</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>658819.0668573512</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>658819.0668573512</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>668419.8287573513</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>665255.7050573513</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>665255.7050573513</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>661260.4339573513</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>703776.9394533323</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>692290.6804533324</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>698899.2053533323</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>696899.2053533323</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>766341.271818817</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>735238.002418817</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>715794.858118817</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>715794.858118817</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>721294.858118817</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>721294.858118817</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>721304.858118817</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>745237.3204065239</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>743767.8584065238</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>673767.8584065238</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>674496.8876065238</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>674496.8876065238</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>674496.8876065238</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>674506.8876065238</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>641048.6103065239</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>520535.0344065239</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>521266.3787065239</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>521313.5557065239</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>521313.5557065239</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>521313.5557065239</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>521323.5557065239</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>350403.6307065239</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>350403.6307065239</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-622775.8678678081</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-618460.3273678081</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-620279.8817678081</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-620029.8279678081</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-562192.4937678081</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-952015.8224678079</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-928585.2296678078</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-986535.9333678078</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-975051.9333678078</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-978006.4433678078</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-965674.1038678078</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-965674.1038678078</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-963674.1038678078</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-964891.2681678077</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-968206.3326678077</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-1016364.722867808</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-993663.0214678078</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-933042.5803678079</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-932418.6442678079</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-936645.7976678079</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-848517.9250741856</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-878059.0032741856</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-747213.8943653126</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-988526.1078653126</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-1098250.134465313</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-1089121.134465313</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-1089121.134465313</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-1072187.081565313</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-1124195.901365313</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-1177345.195165313</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-1175115.236765313</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-17 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 LAMB ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>62132.70830435839</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>7527.069904358388</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>69204.86130435839</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>69204.86130435839</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>69154.86130435839</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>72154.86130435839</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>72131.94470435839</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>110292.9301043584</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>248105.2909716707</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>248105.2909716707</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>248105.2909716707</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>204266.2173716707</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>265813.6027716707</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>247773.2191716707</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>219037.7127716707</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>212015.3248716707</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>258473.6058716706</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>258473.6058716706</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>283185.3282716706</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>283185.3282716706</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>225126.0621716706</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>225126.0621716706</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>224616.0621716706</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>266399.7852716706</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>266389.7852716706</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>266389.7852716706</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>260715.2390716706</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>421108.2320716706</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>421108.2320716706</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>421108.2320716706</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>421138.2320716706</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>421138.2320716706</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>419747.9831716706</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>419993.7488716706</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>419993.7488716706</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>418993.7488716706</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>514911.8525716705</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>498009.1593716706</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>498009.1593716706</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>455279.7059716706</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>455279.7059716706</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>621946.9519716706</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>610736.9519716706</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>610746.9519716706</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>602311.5924716706</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>479406.2524716706</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>485891.1087716706</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>422418.1584716706</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>422418.1584716706</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>590665.7354716705</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>590665.7354716705</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>590408.7957716705</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>624002.3671716705</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>617538.3910716706</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>626364.5430716706</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>556614.0769716706</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>556614.0769716706</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>556614.0769716706</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>556614.0769716706</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>556614.0769716706</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>556614.0769716706</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>656709.0367573511</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>656709.0367573511</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>714770.3000573511</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>713662.2172573511</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>705584.8857573512</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>705584.8857573512</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>705584.8857573512</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>709524.3511573512</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>658819.0668573512</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>658819.0668573512</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>668419.8287573513</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>665255.7050573513</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>665255.7050573513</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>661260.4339573513</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>703776.9394533323</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>692290.6804533324</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>698899.2053533323</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>696899.2053533323</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>766341.271818817</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>735238.002418817</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>715794.858118817</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>715794.858118817</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>721294.858118817</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>721294.858118817</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>721304.858118817</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>745237.3204065239</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>743767.8584065238</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>673767.8584065238</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>674496.8876065238</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>674496.8876065238</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>674496.8876065238</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>674506.8876065238</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>641048.6103065239</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>520535.0344065239</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>521266.3787065239</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>521313.5557065239</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>521313.5557065239</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>363728.9490065239</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>385365.403454143</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-622775.8678678081</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-618460.3273678081</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-620279.8817678081</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-620029.8279678081</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-562192.4937678081</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-986535.9333678078</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-975051.9333678078</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-975051.9333678078</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-965674.1038678078</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-963674.1038678078</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-964891.2681678077</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-968206.3326678077</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-933042.5803678079</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-932418.6442678079</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-936645.7976678079</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-848517.9250741856</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-878059.0032741856</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-747213.8943653126</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-988526.1078653126</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-1098250.134465313</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-1089121.134465313</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-1089121.134465313</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-1072187.081565313</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-1124195.901365313</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-1177345.195165313</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-1175115.236765313</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
